--- a/WatanyaPingTester/bin/Debug/data/alex_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/alex_scheme.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="116">
   <si>
     <t>Mokattam Ant. 2</t>
   </si>
@@ -308,6 +308,60 @@
   </si>
   <si>
     <t>Mobinil Dina Farms Ant. 3</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>Company Ant 1</t>
+  </si>
+  <si>
+    <t>169.254.1.1</t>
+  </si>
+  <si>
+    <t>Company Ant 2</t>
+  </si>
+  <si>
+    <t>169.254.1.2</t>
+  </si>
+  <si>
+    <t>Eqlimy</t>
+  </si>
+  <si>
+    <t>V 2282 Ant. 8</t>
+  </si>
+  <si>
+    <t>169.254.1.81</t>
+  </si>
+  <si>
+    <t>169.254.1.27</t>
+  </si>
+  <si>
+    <t>4117 Ant. 5</t>
+  </si>
+  <si>
+    <t>169.254.1.32</t>
+  </si>
+  <si>
+    <t>Mobinil Dina Farms Ant. 4</t>
+  </si>
+  <si>
+    <t>169.254.1.28</t>
+  </si>
+  <si>
+    <t>Mobinil Dina Farms Ant. 5</t>
+  </si>
+  <si>
+    <t>169.254.1.31</t>
   </si>
 </sst>
 </file>
@@ -318,7 +372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -405,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,7 +494,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,997 +703,1157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="4" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>44</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E29" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D30" t="s">
         <v>50</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E31" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E32" t="s">
         <v>52</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>55</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E34" t="s">
         <v>96</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>97</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
         <v>56</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E35" t="s">
         <v>97</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D38" t="s">
         <v>61</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E38" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C39" t="s">
         <v>62</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E39" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D40" t="s">
         <v>63</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E40" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D41" t="s">
         <v>64</v>
       </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E43" t="s">
         <v>65</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C44" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D44" t="s">
         <v>68</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E44" t="s">
         <v>66</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>72</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D45" t="s">
         <v>72</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E45" t="s">
         <v>69</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>73</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C46" t="s">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
         <v>73</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E46" t="s">
         <v>70</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C47" t="s">
         <v>74</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D47" t="s">
         <v>74</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E47" t="s">
         <v>71</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D48" t="s">
         <v>77</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E48" t="s">
         <v>75</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
         <v>78</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C49" t="s">
         <v>78</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D49" t="s">
         <v>78</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E49" t="s">
         <v>76</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C50" t="s">
         <v>80</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D50" t="s">
         <v>80</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E50" t="s">
         <v>79</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C51" t="s">
         <v>83</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D51" t="s">
         <v>83</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E51" t="s">
         <v>81</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D52" t="s">
         <v>84</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E52" t="s">
         <v>82</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" t="s">
         <v>88</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C53" t="s">
         <v>88</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D53" t="s">
         <v>88</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E53" t="s">
         <v>85</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F53" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
         <v>87</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C54" t="s">
         <v>87</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D54" t="s">
         <v>87</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E54" t="s">
         <v>86</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B55" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C55" t="s">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D55" t="s">
         <v>91</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E55" t="s">
         <v>89</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F55" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B56" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C56" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D56" t="s">
         <v>92</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E56" t="s">
         <v>90</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B57" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C57" t="s">
         <v>94</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D57" t="s">
         <v>94</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E57" t="s">
         <v>93</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F57" t="s">
         <v>93</v>
       </c>
     </row>

--- a/WatanyaPingTester/bin/Debug/data/alex_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/alex_scheme.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="116">
   <si>
     <t>Mokattam Ant. 2</t>
   </si>
@@ -372,7 +372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -459,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +494,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -703,21 +703,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="4" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="F1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -756,8 +760,11 @@
       <c r="F2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -776,8 +783,11 @@
       <c r="F3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -816,8 +829,11 @@
       <c r="F5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -836,8 +852,11 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -856,8 +875,11 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -876,8 +898,11 @@
       <c r="F8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -896,8 +921,11 @@
       <c r="F9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -916,8 +944,11 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -936,8 +967,11 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -956,8 +990,11 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1013,11 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1036,11 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -1016,8 +1059,11 @@
       <c r="F15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1036,8 +1082,11 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1056,8 +1105,11 @@
       <c r="F17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1076,8 +1128,11 @@
       <c r="F18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1096,8 +1151,11 @@
       <c r="F19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1116,8 +1174,11 @@
       <c r="F20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -1136,8 +1197,11 @@
       <c r="F21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1156,8 +1220,11 @@
       <c r="F22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1176,8 +1243,11 @@
       <c r="F23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1196,8 +1266,11 @@
       <c r="F24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1216,8 +1289,11 @@
       <c r="F25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1236,8 +1312,11 @@
       <c r="F26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1256,8 +1335,11 @@
       <c r="F27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1276,8 +1358,11 @@
       <c r="F28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1296,8 +1381,11 @@
       <c r="F29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1316,8 +1404,11 @@
       <c r="F30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1336,8 +1427,11 @@
       <c r="F31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1356,8 +1450,11 @@
       <c r="F32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1376,8 +1473,11 @@
       <c r="F33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1396,8 +1496,11 @@
       <c r="F34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -1416,8 +1519,11 @@
       <c r="F35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -1436,8 +1542,11 @@
       <c r="F36" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -1456,8 +1565,11 @@
       <c r="F37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1476,8 +1588,11 @@
       <c r="F38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1496,8 +1611,11 @@
       <c r="F39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1516,8 +1634,11 @@
       <c r="F40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1536,8 +1657,11 @@
       <c r="F41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -1556,8 +1680,11 @@
       <c r="F42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1576,8 +1703,11 @@
       <c r="F43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1596,8 +1726,11 @@
       <c r="F44" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1616,8 +1749,11 @@
       <c r="F45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1636,8 +1772,11 @@
       <c r="F46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -1656,8 +1795,11 @@
       <c r="F47" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -1676,8 +1818,11 @@
       <c r="F48" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -1696,8 +1841,11 @@
       <c r="F49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -1716,8 +1864,11 @@
       <c r="F50" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -1736,8 +1887,11 @@
       <c r="F51" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -1756,8 +1910,11 @@
       <c r="F52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -1776,8 +1933,11 @@
       <c r="F53" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -1796,8 +1956,11 @@
       <c r="F54" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -1816,8 +1979,11 @@
       <c r="F55" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -1836,8 +2002,11 @@
       <c r="F56" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -1855,6 +2024,9 @@
       </c>
       <c r="F57" t="s">
         <v>93</v>
+      </c>
+      <c r="G57" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/WatanyaPingTester/bin/Debug/data/alex_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/alex_scheme.xlsx
@@ -250,9 +250,6 @@
     <t>169.254.1.51</t>
   </si>
   <si>
-    <t>169.254.1.53</t>
-  </si>
-  <si>
     <t>Al Alamin Gate</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Mobinil Nubariya Rd Ant. 2</t>
   </si>
   <si>
-    <t>169.254.1.68</t>
-  </si>
-  <si>
     <t>169.254.1.70</t>
   </si>
   <si>
@@ -362,6 +356,12 @@
   </si>
   <si>
     <t>169.254.1.31</t>
+  </si>
+  <si>
+    <t>169.254.1.60</t>
+  </si>
+  <si>
+    <t>169.254.1.59</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,71 +720,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,25 +1042,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,25 +1180,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
-        <v>108</v>
-      </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -1468,10 +1468,10 @@
         <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
@@ -1491,10 +1491,10 @@
         <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
         <v>55</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -1514,10 +1514,10 @@
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
         <v>56</v>
@@ -1525,48 +1525,48 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1663,25 +1663,25 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,13 +1827,13 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>76</v>
@@ -1842,191 +1842,191 @@
         <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
         <v>79</v>
       </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s">
         <v>79</v>
-      </c>
-      <c r="F50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
         <v>82</v>
-      </c>
-      <c r="F52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="s">
-        <v>91</v>
-      </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s">
         <v>89</v>
-      </c>
-      <c r="F55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="B56" t="s">
-        <v>92</v>
-      </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s">
         <v>90</v>
-      </c>
-      <c r="F56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
